--- a/experiments/RQ1.xlsx
+++ b/experiments/RQ1.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="54400" yWindow="460" windowWidth="25600" windowHeight="28340"/>
   </bookViews>
   <sheets>
-    <sheet name="design based details" sheetId="5" r:id="rId1"/>
+    <sheet name="ad-hoc based details" sheetId="5" r:id="rId1"/>
     <sheet name="guideline based details" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'design based details'!$A$1:$J$610</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ad-hoc based details'!$A$1:$J$610</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'guideline based details'!$A$1:$K$610</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:J614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
